--- a/bin/Bonos/TZXD6_20240809.xlsx
+++ b/bin/Bonos/TZXD6_20240809.xlsx
@@ -1,7 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Python_script\Github\IBNR-NIIF-17\bin\Bonos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896F931B-8B80-44EF-A860-E5C1AE99A606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="7215" yWindow="1920" windowWidth="15000" windowHeight="8625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
@@ -9,8 +19,37 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Símbolo</t>
+  </si>
+  <si>
+    <t>Fecha Pago</t>
+  </si>
+  <si>
+    <t>VR (%)</t>
+  </si>
+  <si>
+    <t>VR Cartera (%)</t>
+  </si>
+  <si>
+    <t>Renta (R)</t>
+  </si>
+  <si>
+    <t>Amortización (A)</t>
+  </si>
+  <si>
+    <t>A + R</t>
+  </si>
+  <si>
+    <t>TZXD6</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -488,11 +527,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" borderId="0" fillId="0" fontId="0" xfId="0"/>
-    <xf numFmtId="2" borderId="0" fillId="0" fontId="0" applyNumberFormat="1" xfId="0"/>
-    <xf numFmtId="164" borderId="0" fillId="0" fontId="0" applyNumberFormat="1" xfId="0"/>
-    <xf numFmtId="14" borderId="0" fillId="0" fontId="0" applyNumberFormat="1" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -813,64 +850,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" width="20" max="1" min="1"/>
-    <col customWidth="1" width="20" max="2" min="2"/>
-    <col customWidth="1" width="20" max="3" min="3"/>
-    <col customWidth="1" width="20" max="4" min="4"/>
-    <col customWidth="1" width="20" max="5" min="5"/>
-    <col customWidth="1" width="20" max="6" min="6"/>
-    <col customWidth="1" width="20" max="7" min="7"/>
+    <col min="1" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row>
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Símbolo</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Fecha Pago</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>VR (%)</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>VR Cartera (%)</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Renta (R)</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amortización (A)</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>A + R</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row>
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>TZXD6</t>
-        </is>
-      </c>
-      <c r="B2" s="3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
         <v>46371</v>
       </c>
       <c r="C2">
@@ -883,12 +902,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.5913</v>
+        <v>159.13</v>
       </c>
       <c r="G2">
-        <v>1.5913</v>
+        <v>159.13</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>